--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -1,363 +1,338 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_workspace\packages\TGUI\ui-understanding-application-structure\UnderstandingApplicationStructure\assets\texts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Typography" sheetId="1" r:id="rId1"/>
     <sheet name="Translation" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" fullPrecision="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="0" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="102">
-  <si>
-    <t>Font</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Bpp</t>
-  </si>
-  <si>
-    <t>TouchGFX - Typography Sheet</t>
-  </si>
-  <si>
-    <t>TouchGFX - Translation Sheet</t>
-  </si>
-  <si>
-    <t>Typography Name</t>
-  </si>
-  <si>
-    <t>Wildcard Ranges</t>
-  </si>
-  <si>
-    <t>Fallback Character</t>
-  </si>
-  <si>
-    <t>Wildcard Characters</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Example 1</t>
-  </si>
-  <si>
-    <t>Example 2</t>
-  </si>
-  <si>
-    <t>Example 3</t>
-  </si>
-  <si>
-    <t>The pixel size of the font as an integer</t>
-  </si>
-  <si>
-    <t>The bit depth of the font. Valid values are 1, 2, 4 and 8</t>
-  </si>
-  <si>
-    <t>The character to write if a glyph is missing at runtime (blank causes assert if glyph is missing)</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>skip</t>
-  </si>
-  <si>
-    <t>0x1234</t>
-  </si>
-  <si>
-    <t>The characters that are used in wildcard strings</t>
-  </si>
-  <si>
-    <t>1234567890.-</t>
-  </si>
-  <si>
-    <t>AMPM</t>
-  </si>
-  <si>
-    <t>Similar to "Wildcard Characters", but can be used to easily specify a range of characters</t>
-  </si>
-  <si>
-    <t>0-9,A-F</t>
-  </si>
-  <si>
-    <t>48-57,65-70</t>
-  </si>
-  <si>
-    <t>0x30-0x39,0x41-0x48</t>
-  </si>
-  <si>
-    <t>For more information read about "Using texts and fonts" on http://support.touchgfx.com/</t>
-  </si>
-  <si>
-    <t>Ellipsis Character</t>
-  </si>
-  <si>
-    <t>The character to insert when truncating long lines. See TextArea::setWideTextAction()</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>0x22EF</t>
-  </si>
-  <si>
-    <t>TEXT ID</t>
-  </si>
-  <si>
-    <t>TYPOGRAPHY NAME</t>
-  </si>
-  <si>
-    <t>ALIGNMENT</t>
-  </si>
-  <si>
-    <t>DIRECTION</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>SingleUseId1</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>LTR</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>&lt;value&gt;</t>
-  </si>
-  <si>
-    <t>SingleUseId2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Center</t>
-  </si>
-  <si>
-    <t>SingleUseId3</t>
-  </si>
-  <si>
-    <t>SingleUseId4</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
-    <t>presenter</t>
-  </si>
-  <si>
-    <t>Presenter</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>system_input_code</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>system_output_code</t>
-  </si>
-  <si>
-    <t>Example
-Input from system</t>
-  </si>
-  <si>
-    <t>Example
-Output to system</t>
-  </si>
-  <si>
-    <t>view_input_code</t>
-  </si>
-  <si>
-    <t>view_output_code</t>
-  </si>
-  <si>
-    <t>presenter_input_code</t>
-  </si>
-  <si>
-    <t>presenter_output_code</t>
-  </si>
-  <si>
-    <t>model_input_code</t>
-  </si>
-  <si>
-    <t>model_output_code</t>
-  </si>
-  <si>
-    <t>mvp_in_short</t>
-  </si>
-  <si>
-    <t>ui</t>
-  </si>
-  <si>
-    <t>Understanding MVP</t>
-  </si>
-  <si>
-    <t>view_description</t>
-  </si>
-  <si>
-    <t>void TemperatureView::buttonClicked() {
-  presenter-&gt;buttonClicked();
-}</t>
-  </si>
-  <si>
-    <t>Views describe the visual appearance of your ui.
-Views consist of widgets - boxes, images, buttons, ...
-Views have handlers for reacting to user events</t>
-  </si>
-  <si>
-    <t>presenter_description</t>
-  </si>
-  <si>
-    <t>model_description</t>
-  </si>
-  <si>
-    <t>system_description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presenters mediate between the views and the model
-Presenters contain the behaviour of the ui </t>
-  </si>
-  <si>
-    <t xml:space="preserve">void TemperaturePresenter::buttonClicked() {
-  model-&gt;requestAdjustTemperature();
-}
-</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>MVP connects your UI to your system</t>
-  </si>
-  <si>
-    <t>demo</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>void TemperatureView::updateCurrent(int t) {
-  temperatureWidget.setValue(t);
-}</t>
-  </si>
-  <si>
-    <t>void TemperaturePresenter::updateCurrent(int t) {
-  view.updateCurrent(t);
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">void Model::requestAdjustTemperature() {
-  control_set_room_temperature();
-}
-</t>
-  </si>
-  <si>
-    <t>void control_set_room_temperature() {
-  //...
-}</t>
-  </si>
-  <si>
-    <t>int control_read_current_temperature() {
-  //...
-}</t>
-  </si>
-  <si>
-    <t>void Model::tick() {
-  temperature = control_read_current_temperature();
-  modelListener-&gt;updateCurrent(temperature);
-}</t>
-  </si>
-  <si>
-    <t>The system is everything outside TouchGFX
-The system has methods for controlling your hardware
-The system can be implemented in C or C++</t>
-  </si>
-  <si>
-    <t>The model holds the state of the ui
-The model is the point of integration with your system
-You write the code for communicating with your system</t>
-  </si>
-  <si>
-    <t>0-9</t>
-  </si>
-  <si>
-    <t>output + 10</t>
-  </si>
-  <si>
-    <t>introduction</t>
-  </si>
-  <si>
-    <t>Understanding MVP
-This application will help you understand
-the model, view, presenter structure 
-of TouchGFX applications
-Move left or right by using the arrows</t>
-  </si>
-  <si>
-    <t>SourceCodePro-Regular.ttf</t>
-  </si>
-  <si>
-    <t>SourceSansPro-Bold.ttf</t>
-  </si>
-  <si>
-    <t>SingleUseId5</t>
-  </si>
-  <si>
-    <t>New Text</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>understanding</t>
-  </si>
-  <si>
-    <t>Widget Wildcard Characters</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="106">
+  <si>
+    <t xml:space="preserve">Font</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TouchGFX - Typography Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TouchGFX - Translation Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildcard Ranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fallback Character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildcard Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The pixel size of the font as an integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bit depth of the font. Valid values are 1, 2, 4 and 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The character to write if a glyph is missing at runtime (blank causes assert if glyph is missing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The characters that are used in wildcard strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567890.-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similar to "Wildcard Characters", but can be used to easily specify a range of characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,A-F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48-57,65-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x30-0x39,0x41-0x48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For more information read about "Using texts and fonts" on http://support.touchgfx.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellipsis Character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The character to insert when truncating long lines. See TextArea::setWideTextAction()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x22EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXT ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPOGRAPHY NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIGNMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widget Wildcard Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verdana.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoverTransition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlipTransition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SlideTransition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CurtainsTransition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curtains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RolloutTransition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rollout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheelText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saira-Medium.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">largeTransitionText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saira-SemiBold.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LargerCoverTransition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVER TRANSITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LargeFlipTransition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLIP TRANSITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LargeSlideTransition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLIDE TRANSITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LargeCurtainsTransition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURTAINS TRANSITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LargeRolloutTransition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLLOUT TRANSITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LargeCoverTransition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topbarText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCU:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animationSpeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NormalSpeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SlowMotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slow-motion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LargeCubeTransition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBE TRANSITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CubeTransition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LargeSpinTransition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPIN TRANSITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LargeSpinOutTransition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPIN OUT TRANSITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpinTransition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpinOutTransition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spin Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
   </si>
 </sst>
 </file>
@@ -755,11 +730,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="81" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="81" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="82">
     <cellStyle name="Accent1" xfId="81" builtinId="29"/>
@@ -1508,53 +1483,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:P12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" customWidth="1"/>
+    <col min="1" max="1" width="0.28515625" style="0" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="0" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="0" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="0" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="0" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="0" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="0" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" style="0" customWidth="1"/>
+    <col min="13" max="13" width="84.7109375" style="0" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="0" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="0" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" style="0" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="129" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" ht="129" hidden="1" customHeight="1">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:16" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:16" ht="39.95" customHeight="1" thickBot="1">
+      <c r="B2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1">
       <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
@@ -1573,8 +1548,8 @@
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>101</v>
+      <c r="H3" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>6</v>
@@ -1583,15 +1558,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1599,12 +1574,10 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="25"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
       <c r="L4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1621,12 +1594,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -1637,10 +1610,10 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
       <c r="L5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1655,15 +1628,15 @@
       </c>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1671,10 +1644,12 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6"/>
       <c r="L6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1689,15 +1664,15 @@
       </c>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -1705,10 +1680,10 @@
       <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
       <c r="L7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1725,7 +1700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16">
       <c r="L8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1740,7 +1715,7 @@
       </c>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16">
       <c r="L9" s="11" t="s">
         <v>6</v>
       </c>
@@ -1757,7 +1732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16">
       <c r="L10" s="11" t="s">
         <v>28</v>
       </c>
@@ -1772,20 +1747,20 @@
       </c>
       <c r="P10" s="14"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16">
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16">
       <c r="M12" s="16" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <tableParts count="2">
@@ -1796,33 +1771,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="0.42578125" style="0" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="0" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="0" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="0" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="0" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="2:6" ht="3.75" customHeight="1"/>
+    <row r="2" spans="2:6" ht="33" customHeight="1">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="2:6" s="22" customFormat="1">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -1839,480 +1814,412 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
         <v>93</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>65</v>
       </c>
       <c r="C23" t="s">
         <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="B24" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
         <v>58</v>
       </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="B27" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
